--- a/Project2/Project2/Book3.xlsx
+++ b/Project2/Project2/Book3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\新しいフォルダー\Project2\map情報\map情報\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\new game\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,59 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -933,9 +985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="80" width="3.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A1">
@@ -1235,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1292,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -1355,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -1477,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1534,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1597,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -1677,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1719,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1731,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1764,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1776,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1797,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1821,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1839,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -1961,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2018,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2081,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -2203,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2260,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2308,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -2323,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI6">
         <v>0</v>
@@ -2409,25 +2466,25 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2436,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2445,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2466,88 +2523,88 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -2565,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7">
         <v>0</v>
@@ -2598,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS7">
         <v>0</v>
@@ -2651,25 +2708,25 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2687,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2708,88 +2765,88 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -2807,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8">
         <v>0</v>
@@ -2893,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2929,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2950,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2986,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -3049,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -3079,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="BQ9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR9">
         <v>0</v>
@@ -3135,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3183,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -3192,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -3228,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3291,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10">
         <v>0</v>
@@ -3377,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3425,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -3434,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -3470,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -3491,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -3515,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -3533,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI11">
         <v>0</v>
@@ -3619,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3655,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3676,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3691,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -3712,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3775,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI12">
         <v>0</v>
@@ -3805,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="BQ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR12">
         <v>0</v>
@@ -3814,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="BT12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU12">
         <v>0</v>
@@ -3861,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3897,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3918,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3933,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -3954,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -4017,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13">
         <v>0</v>
@@ -4103,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4139,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -4160,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4181,145 +4238,145 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14">
         <v>1</v>
@@ -4345,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4381,10 +4438,10 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4402,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -4423,145 +4480,145 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB15">
         <v>1</v>
@@ -4587,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4623,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -4644,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -4665,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -4680,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4743,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="BG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI16">
         <v>0</v>
@@ -4829,10 +4886,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4865,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4886,86 +4943,86 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
         <v>2</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
       <c r="BA17">
         <v>0</v>
       </c>
@@ -4985,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI17">
         <v>0</v>
@@ -5062,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5071,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5107,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -5128,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -5140,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -5149,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -5164,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -5209,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -5227,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="BG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI18">
         <v>0</v>
@@ -5248,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BO18">
         <v>0</v>
@@ -5313,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5343,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -5370,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -5382,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -5391,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5406,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -5448,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -5469,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI19">
         <v>0</v>
@@ -5555,10 +5612,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5585,16 +5642,16 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5612,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -5633,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -5648,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -5693,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB20">
         <v>0</v>
@@ -5711,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI20">
         <v>0</v>
@@ -5797,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5833,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5854,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -5875,13 +5932,13 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -5890,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -5953,10 +6010,10 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI21">
         <v>0</v>
@@ -6001,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BW21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX21">
         <v>0</v>
@@ -6030,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6039,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -6075,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -6096,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -6117,88 +6174,88 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22">
         <v>0</v>
@@ -6228,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS22">
         <v>0</v>
@@ -6281,46 +6338,46 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -6338,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -6359,88 +6416,88 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23">
         <v>0</v>
@@ -6523,46 +6580,46 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6580,16 +6637,16 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -6616,73 +6673,73 @@
         <v>0</v>
       </c>
       <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
         <v>3</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>0</v>
       </c>
       <c r="BI24">
         <v>0</v>
@@ -6822,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -6858,74 +6915,74 @@
         <v>0</v>
       </c>
       <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
         <v>3</v>
       </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>0</v>
-      </c>
       <c r="BI25">
         <v>0</v>
       </c>
@@ -6945,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -7064,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -7100,73 +7157,73 @@
         <v>0</v>
       </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
         <v>3</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
       </c>
       <c r="BI26">
         <v>0</v>
@@ -7264,41 +7321,41 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>4</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
         <v>0</v>
       </c>
@@ -7306,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -7342,74 +7399,74 @@
         <v>0</v>
       </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
         <v>3</v>
       </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
       <c r="BI27">
         <v>0</v>
       </c>
@@ -7420,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="BL27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -7548,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -7584,73 +7641,73 @@
         <v>0</v>
       </c>
       <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
         <v>3</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
       </c>
       <c r="BI28">
         <v>0</v>
@@ -7790,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -7826,74 +7883,74 @@
         <v>0</v>
       </c>
       <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
         <v>3</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
       <c r="BI29">
         <v>0</v>
       </c>
@@ -7907,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="BM29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP29">
         <v>0</v>
@@ -7960,238 +8017,238 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BN30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB30">
         <v>1</v>
@@ -8199,7 +8256,7 @@
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8244,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -8274,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -8310,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -8391,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="BM31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -8436,12 +8493,12 @@
         <v>0</v>
       </c>
       <c r="CB31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8486,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -8516,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -8534,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -8552,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -8678,12 +8735,12 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8794,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -8920,12 +8977,12 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9036,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -9162,12 +9219,12 @@
         <v>0</v>
       </c>
       <c r="CB34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9278,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -9308,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <v>0</v>
@@ -9404,12 +9461,12 @@
         <v>0</v>
       </c>
       <c r="CB35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9520,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -9646,12 +9703,12 @@
         <v>0</v>
       </c>
       <c r="CB36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9720,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -9762,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -9888,12 +9945,12 @@
         <v>0</v>
       </c>
       <c r="CB37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10004,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -10130,12 +10187,12 @@
         <v>0</v>
       </c>
       <c r="CB38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10180,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -10246,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -10372,12 +10429,12 @@
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10488,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -10614,12 +10671,12 @@
         <v>0</v>
       </c>
       <c r="CB40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10700,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -10730,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -10856,12 +10913,12 @@
         <v>0</v>
       </c>
       <c r="CB41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10972,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -11098,12 +11155,12 @@
         <v>0</v>
       </c>
       <c r="CB42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11199,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -11214,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -11340,12 +11397,12 @@
         <v>0</v>
       </c>
       <c r="CB43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11423,10 +11480,10 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -11456,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -11582,12 +11639,12 @@
         <v>0</v>
       </c>
       <c r="CB44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11665,10 +11722,10 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -11698,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -11824,12 +11881,12 @@
         <v>0</v>
       </c>
       <c r="CB45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11940,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -12066,12 +12123,12 @@
         <v>0</v>
       </c>
       <c r="CB46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12182,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -12257,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL47">
         <v>0</v>
@@ -12308,12 +12365,12 @@
         <v>0</v>
       </c>
       <c r="CB47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12424,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
         <v>0</v>
@@ -12550,12 +12607,12 @@
         <v>0</v>
       </c>
       <c r="CB48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12609,10 +12666,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -12666,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -12792,12 +12849,12 @@
         <v>0</v>
       </c>
       <c r="CB49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12827,10 +12884,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -12851,10 +12908,10 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -12908,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -13034,12 +13091,12 @@
         <v>0</v>
       </c>
       <c r="CB50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13069,10 +13126,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -13150,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -13177,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV51">
         <v>0</v>
@@ -13258,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="BV51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW51">
         <v>0</v>
@@ -13276,12 +13333,12 @@
         <v>0</v>
       </c>
       <c r="CB51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -13392,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
         <v>0</v>
@@ -13518,12 +13575,12 @@
         <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -13598,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -13634,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
         <v>0</v>
@@ -13760,12 +13817,12 @@
         <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -13876,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -14002,12 +14059,12 @@
         <v>0</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -14118,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -14244,12 +14301,12 @@
         <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -14360,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -14486,12 +14543,12 @@
         <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -14602,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
         <v>0</v>
@@ -14728,12 +14785,12 @@
         <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -14844,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -14970,12 +15027,12 @@
         <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -15086,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -15212,253 +15269,276 @@
         <v>0</v>
       </c>
       <c r="CB59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:CB60">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CB30">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project2/Project2/Book3.xlsx
+++ b/Project2/Project2/Book3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\new game\Project2\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\test\Project2\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:CB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1176,64 +1176,64 @@
         <v>1</v>
       </c>
       <c r="BI1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.4">
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.4">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.4">
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.4">
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.4">
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.4">
@@ -2466,25 +2466,25 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS7">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.4">
@@ -2708,25 +2708,25 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.4">
@@ -2935,19 +2935,19 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.4">
@@ -3177,19 +3177,19 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="CB10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.4">
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.4">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="BQ12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR12">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="BT12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU12">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="CB12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.4">
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="CB13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.4">
@@ -4160,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -4343,19 +4343,19 @@
         <v>1</v>
       </c>
       <c r="BP14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU14">
         <v>1</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>1</v>
       </c>
       <c r="BP15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU15">
         <v>1</v>
@@ -4650,34 +4650,34 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -4892,34 +4892,34 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5134,34 +5134,34 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BO18">
         <v>0</v>
@@ -5376,34 +5376,34 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -5618,34 +5618,34 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -5860,34 +5860,34 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BW21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX21">
         <v>0</v>
@@ -6102,34 +6102,34 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS22">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH24">
         <v>3</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH25">
         <v>3</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="BU25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH26">
         <v>3</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="AU27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV27">
         <v>0</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH27">
         <v>3</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="BL27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM27">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH28">
         <v>3</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH29">
         <v>3</v>
